--- a/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_h/6.2.a_dm_test_hln_resultados.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_h/6.2.a_dm_test_hln_resultados.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>Parámetro</t>
   </si>
@@ -92,13 +92,10 @@
     <t>Coef_Variacion</t>
   </si>
   <si>
-    <t>100.0%</t>
+    <t>66.7%</t>
   </si>
   <si>
     <t>0.0%</t>
-  </si>
-  <si>
-    <t>33.3%</t>
   </si>
   <si>
     <t>0.7936</t>
@@ -611,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -645,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -653,13 +650,13 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -700,13 +697,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>7.7283068833367E-11</v>
+        <v>9.250352293754815E-05</v>
       </c>
       <c r="D2">
-        <v>2.100569718166412E-09</v>
+        <v>0.002617164976163044</v>
       </c>
       <c r="E2">
-        <v>0.0007082899218837646</v>
+        <v>0.01788968829883553</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -714,16 +711,16 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>7.7283068833367E-11</v>
+        <v>9.250352293754815E-05</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.2959240667054821</v>
+        <v>0.535310749788648</v>
       </c>
       <c r="E3">
-        <v>0.0591524553369791</v>
+        <v>0.141860918160333</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -731,16 +728,16 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2.100569718166412E-09</v>
+        <v>0.002617164976163044</v>
       </c>
       <c r="C4">
-        <v>0.2959240667054821</v>
+        <v>0.535310749788648</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.002331702074830799</v>
+        <v>0.06647042378444534</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -748,13 +745,13 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.0007082899218837646</v>
+        <v>0.01788968829883553</v>
       </c>
       <c r="C5">
-        <v>0.0591524553369791</v>
+        <v>0.141860918160333</v>
       </c>
       <c r="D5">
-        <v>0.002331702074830799</v>
+        <v>0.06647042378444534</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -795,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-6.547998019565469</v>
+        <v>-4.76813476679171</v>
       </c>
       <c r="D2">
-        <v>-6.022879141956307</v>
+        <v>-3.392592122517068</v>
       </c>
       <c r="E2">
-        <v>-3.392646859999252</v>
+        <v>-2.559133746217347</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -809,16 +806,16 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6.547998019565469</v>
+        <v>4.76813476679171</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-1.045539771108143</v>
+        <v>-0.6298023629298993</v>
       </c>
       <c r="E3">
-        <v>1.888340923208103</v>
+        <v>1.52357720040193</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -826,16 +823,16 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6.022879141956307</v>
+        <v>3.392592122517068</v>
       </c>
       <c r="C4">
-        <v>1.045539771108143</v>
+        <v>0.6298023629298993</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3.049028492127045</v>
+        <v>1.930993469446415</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -843,13 +840,13 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.392646859999252</v>
+        <v>2.559133746217347</v>
       </c>
       <c r="C5">
-        <v>-1.888340923208103</v>
+        <v>-1.52357720040193</v>
       </c>
       <c r="D5">
-        <v>-3.049028492127045</v>
+        <v>-1.930993469446415</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -899,25 +896,25 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -937,13 +934,13 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -954,22 +951,22 @@
         <v>0</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -977,25 +974,25 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
